--- a/data/datafpt1.xlsx
+++ b/data/datafpt1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9ddda5e17de0af8/Documents/akaBot/Data_TTCS/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duymanh/Documents/Data_ttcs_akabot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{00C58823-AF1D-4914-BA76-57352EC84D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19843C20-0975-4081-97E3-0D57FE949D93}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4859C68-8AA7-C149-8CC9-459C9C440A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{618A42CE-723B-4F68-A810-7F89C85647D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{618A42CE-723B-4F68-A810-7F89C85647D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -1378,25 +1376,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F061DE6-995A-4E22-A23A-2C3E57CC2797}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="68.5" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1445,7 +1443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1468,7 +1466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1497,7 +1495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1526,7 +1524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1555,7 +1553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1575,7 +1573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1604,7 +1602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1624,7 +1622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1653,7 +1651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1682,7 +1680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1702,7 +1700,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1722,7 +1720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -1742,7 +1740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1771,7 +1769,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -1800,7 +1798,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -1820,7 +1818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -1849,7 +1847,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -1869,7 +1867,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -1889,7 +1887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -1909,7 +1907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -1929,7 +1927,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -1949,7 +1947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -1969,7 +1967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -1989,7 +1987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -2009,7 +2007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -2029,7 +2027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -2049,7 +2047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -2098,7 +2096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -2121,7 +2119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -2141,7 +2139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -2161,7 +2159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -2190,7 +2188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -2210,7 +2208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -2230,7 +2228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>152</v>
       </c>
@@ -2250,7 +2248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>155</v>
       </c>
@@ -2270,7 +2268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>158</v>
       </c>
@@ -2290,7 +2288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -2319,7 +2317,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -2348,7 +2346,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -2377,7 +2375,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -2397,7 +2395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>175</v>
       </c>
@@ -2417,7 +2415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>177</v>
       </c>
@@ -2437,7 +2435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>180</v>
       </c>
@@ -2457,7 +2455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -2486,7 +2484,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>186</v>
       </c>
@@ -2509,7 +2507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -2529,7 +2527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -2549,7 +2547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -2569,7 +2567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>196</v>
       </c>
@@ -2589,7 +2587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -2609,7 +2607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>202</v>
       </c>
@@ -2629,7 +2627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>205</v>
       </c>
@@ -2649,7 +2647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>207</v>
       </c>
@@ -2669,7 +2667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>210</v>
       </c>
@@ -2689,7 +2687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>212</v>
       </c>
@@ -2709,7 +2707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>216</v>
       </c>
@@ -2729,7 +2727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>218</v>
       </c>
@@ -2749,7 +2747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>222</v>
       </c>
@@ -2769,7 +2767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -2789,7 +2787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>227</v>
       </c>
@@ -2818,7 +2816,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>231</v>
       </c>
@@ -2838,7 +2836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>233</v>
       </c>
@@ -2867,7 +2865,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>235</v>
       </c>
@@ -2890,7 +2888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>237</v>
       </c>
@@ -2910,7 +2908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>239</v>
       </c>
@@ -2930,7 +2928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>241</v>
       </c>
@@ -2950,7 +2948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>244</v>
       </c>
@@ -2970,7 +2968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>246</v>
       </c>
@@ -2999,7 +2997,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>249</v>
       </c>
@@ -3019,7 +3017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -3039,7 +3037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>254</v>
       </c>
@@ -3059,7 +3057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>256</v>
       </c>
@@ -3079,7 +3077,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>259</v>
       </c>
@@ -3108,7 +3106,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>263</v>
       </c>
@@ -3137,7 +3135,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>266</v>
       </c>
@@ -3157,7 +3155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>268</v>
       </c>
@@ -3177,7 +3175,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>271</v>
       </c>
@@ -3194,7 +3192,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>276</v>
       </c>
@@ -3214,7 +3212,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>282</v>
       </c>
@@ -3234,7 +3232,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>285</v>
       </c>
@@ -3245,7 +3243,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>288</v>
       </c>
@@ -3256,7 +3254,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>291</v>
       </c>
@@ -3267,7 +3265,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>294</v>
       </c>
@@ -3278,7 +3276,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>297</v>
       </c>
@@ -3289,7 +3287,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>300</v>
       </c>
@@ -3309,7 +3307,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>303</v>
       </c>
@@ -3323,7 +3321,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>307</v>
       </c>
@@ -3337,7 +3335,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>310</v>
       </c>
@@ -3345,7 +3343,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>312</v>
       </c>
@@ -3353,7 +3351,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>314</v>
       </c>
@@ -3361,7 +3359,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>316</v>
       </c>
@@ -3369,7 +3367,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>318</v>
       </c>
@@ -3377,7 +3375,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>320</v>
       </c>
@@ -3385,7 +3383,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>322</v>
       </c>
@@ -3393,7 +3391,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>324</v>
       </c>
@@ -3401,7 +3399,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>326</v>
       </c>
@@ -3409,7 +3407,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>328</v>
       </c>
